--- a/test/FORM Fields.xlsx
+++ b/test/FORM Fields.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pupedu-my.sharepoint.com/personal/rmbardillonjr_iskolarngbayan_pup_edu_ph/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cswd\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1B09E50-5BC1-4FAD-8452-C5390388A326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6266AD64-567F-40CE-A07F-73FCE580117F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A17AED3D-BB50-41F5-93ED-92BC410CDAD3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="67">
   <si>
     <t>{</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>SELECT</t>
   </si>
 </sst>
 </file>
@@ -585,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409FE08B-E30D-44BC-BE3F-CFC0D785988F}">
-  <dimension ref="B2:C69"/>
+  <dimension ref="A2:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:C48"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,12 +599,12 @@
     <col min="2" max="2" width="80.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -609,7 +612,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -617,7 +620,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -625,7 +628,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -633,7 +639,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -641,7 +647,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -649,7 +655,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -657,7 +663,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -665,7 +671,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -673,7 +679,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -681,7 +687,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -689,7 +695,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -697,7 +703,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -705,7 +711,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -713,7 +719,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -721,7 +727,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -729,7 +735,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -737,7 +743,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -745,7 +751,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -753,7 +762,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -761,7 +773,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -769,7 +784,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -777,7 +792,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -785,7 +803,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -793,7 +811,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -801,7 +819,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -809,7 +827,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>27</v>
       </c>
@@ -817,7 +835,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>28</v>
       </c>
@@ -825,7 +843,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>29</v>
       </c>
@@ -833,7 +851,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>30</v>
       </c>

--- a/test/FORM Fields.xlsx
+++ b/test/FORM Fields.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cswd\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6266AD64-567F-40CE-A07F-73FCE580117F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8FC84F-BC61-46C5-AF28-4D7A729D7E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A17AED3D-BB50-41F5-93ED-92BC410CDAD3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="126">
   <si>
     <t>{</t>
   </si>
@@ -237,6 +237,183 @@
   </si>
   <si>
     <t>SELECT</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "surname",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "BARDILLON"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "firstName",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "ROMEO JR"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "middlename",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "MONTEALEGRE"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "soloParentDOB",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "2001-07-30"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "placeOfBirth",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "MABITAC, LAGUNA"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "gender",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "Male"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "barangay",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "Tagapo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "address",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "BLOCK 7 LOT 2 OAK STREET ROSE POINTE SUBDIVISION"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "educationalAttainment",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "COLLEGE"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "job",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "WALA"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "company",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "NONE"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "monthlyIncome",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "totalFamilyIncome",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "telephone",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "09760657071"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "childFirstName",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "KOBE"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "childLastName",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "BRYANT"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "soloParentChildDOB",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "1992-12-31"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "maritalStatus",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "Single"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "childEducationalAttainment",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "ADS"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "childIncome",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "324"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "LEBRON"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "JAMES"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "2000-12-31"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "GGG"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "123"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "soloParentClassification",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "Death of Spouse"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "Abandonment"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "Disappearance of Parents"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "Imprisonment of Spouse/Detention"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "Physical and Mental Incapacity"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "Annulment/Legal Separation"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "soloParentNeeds",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "LONGTEXT"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "soloParentFamilyResources",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>]</t>
   </si>
 </sst>
 </file>
@@ -588,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409FE08B-E30D-44BC-BE3F-CFC0D785988F}">
-  <dimension ref="A2:C69"/>
+  <dimension ref="A2:C210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,6 +1332,741 @@
         <v>65</v>
       </c>
     </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>80</v>
+      </c>
+      <c r="C95" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>84</v>
+      </c>
+      <c r="C103" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>86</v>
+      </c>
+      <c r="C107" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>88</v>
+      </c>
+      <c r="C111" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>68</v>
+      </c>
+      <c r="C114" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>92</v>
+      </c>
+      <c r="C119" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>94</v>
+      </c>
+      <c r="C123" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>95</v>
+      </c>
+      <c r="C127" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>101</v>
+      </c>
+      <c r="C139" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test/FORM Fields.xlsx
+++ b/test/FORM Fields.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cswd\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8FC84F-BC61-46C5-AF28-4D7A729D7E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F365FAB7-C791-4A61-9A5C-73930730BFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A17AED3D-BB50-41F5-93ED-92BC410CDAD3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="163">
   <si>
     <t>{</t>
   </si>
@@ -414,6 +414,117 @@
   </si>
   <si>
     <t>]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "ASUNCION"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "SABANDAL"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "Female"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "Widowed"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "srCitizenDOB",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "1942-01-12"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "AKLAN"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "email",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "asuncionmontealegre@gmail.com"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "09091072865"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "religion",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "CATHOLIC"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "hasPension",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "Meron"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "whatPension",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "SSS"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "howMuchPension",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "6000"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "spouseLastName",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "spouseFirstName",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "VERGILIO"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "spouseMiddleName",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "SOBERANO"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "spouseSuffix",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "spouseDOB",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "1942-08-07"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "numberOfChildren",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "totalHousemate",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "MILA ROSA"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "srCitizenChildDOB",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "1965-07-20"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "childTelephone",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "childBarangay",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "name": "childAddress",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "value": "BLOCK 7 LOT 2 ROSE POINTE SUBD BRGY. TAGAPO SANTA ROSA LAGUNA"</t>
   </si>
 </sst>
 </file>
@@ -765,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409FE08B-E30D-44BC-BE3F-CFC0D785988F}">
-  <dimension ref="A2:C210"/>
+  <dimension ref="A2:C330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="B213" sqref="B213:B330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,6 +2178,596 @@
         <v>125</v>
       </c>
     </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B323" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B326" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B328" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B330" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
